--- a/AlwaysOn/장부.xlsx
+++ b/AlwaysOn/장부.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MTDC\AlwaysOn\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9580" windowHeight="1770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9585" windowHeight="1770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,13 +94,25 @@
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최기수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드론 책(1권)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +286,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -331,7 +338,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -525,7 +532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -533,23 +540,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K7"/>
+  <dimension ref="B3:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.6640625" style="1"/>
-    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="12.1640625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="8.6640625" style="1"/>
+    <col min="1" max="3" width="8.625" style="1"/>
+    <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="12.125" style="1" customWidth="1"/>
+    <col min="8" max="10" width="8.625" style="1"/>
     <col min="11" max="11" width="18.5" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="1"/>
+    <col min="12" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -596,7 +603,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -620,10 +627,10 @@
       </c>
       <c r="K5" s="6">
         <f>K4-SUM(E4:E1048576)</f>
-        <v>630560</v>
+        <v>608560</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -640,7 +647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -655,6 +662,20 @@
       </c>
       <c r="G7" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2">
+        <v>22000</v>
       </c>
     </row>
   </sheetData>

--- a/AlwaysOn/장부.xlsx
+++ b/AlwaysOn/장부.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\MTDC\AlwaysOn\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9585" windowHeight="1770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9588" windowHeight="1776"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,25 +99,13 @@
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최기수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드론 책(1권)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -532,7 +525,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -543,20 +536,20 @@
   <dimension ref="B3:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="8.625" style="1"/>
-    <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="12.125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="8.625" style="1"/>
+    <col min="1" max="3" width="8.59765625" style="1"/>
+    <col min="4" max="4" width="28.59765625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="12.09765625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="8.59765625" style="1"/>
     <col min="11" max="11" width="18.5" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.625" style="1"/>
+    <col min="12" max="16384" width="8.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -603,7 +596,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -627,10 +620,10 @@
       </c>
       <c r="K5" s="6">
         <f>K4-SUM(E4:E1048576)</f>
-        <v>608560</v>
+        <v>630560</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -647,7 +640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -664,19 +657,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2">
-        <v>22000</v>
-      </c>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/AlwaysOn/장부.xlsx
+++ b/AlwaysOn/장부.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\MTDC\AlwaysOn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MTDC\AlwaysOn\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9588" windowHeight="1776"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9590" windowHeight="1780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지무근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드론 kit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,6 +229,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -279,7 +294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -331,7 +346,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -536,20 +551,22 @@
   <dimension ref="B3:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="B8:E8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="8.59765625" style="1"/>
-    <col min="4" max="4" width="28.59765625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="12.09765625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="8.59765625" style="1"/>
+    <col min="1" max="1" width="8.58203125" style="1"/>
+    <col min="2" max="2" width="11.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.58203125" style="1"/>
+    <col min="4" max="4" width="28.58203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="12.08203125" style="1" customWidth="1"/>
+    <col min="8" max="10" width="8.58203125" style="1"/>
     <col min="11" max="11" width="18.5" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.59765625" style="1"/>
+    <col min="12" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -596,7 +613,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -620,10 +637,10 @@
       </c>
       <c r="K5" s="6">
         <f>K4-SUM(E4:E1048576)</f>
-        <v>630560</v>
+        <v>470130</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -640,7 +657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -657,8 +674,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="E8" s="2"/>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B8" s="7">
+        <v>42893</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2">
+        <v>160430</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/AlwaysOn/장부.xlsx
+++ b/AlwaysOn/장부.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,26 @@
   </si>
   <si>
     <t>드론 kit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최기수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,6 +252,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -548,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K8"/>
+  <dimension ref="B3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -602,7 +625,9 @@
       <c r="E4" s="2">
         <v>33840</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
@@ -637,7 +662,7 @@
       </c>
       <c r="K5" s="6">
         <f>K4-SUM(E4:E1048576)</f>
-        <v>470130</v>
+        <v>460130</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.45">
@@ -653,6 +678,9 @@
       <c r="E6" s="2">
         <v>34610</v>
       </c>
+      <c r="F6" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>18</v>
       </c>
@@ -670,6 +698,9 @@
       <c r="E7" s="2">
         <v>15920</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G7" s="1" t="s">
         <v>18</v>
       </c>
@@ -687,8 +718,28 @@
       <c r="E8" s="2">
         <v>160430</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/AlwaysOn/장부.xlsx
+++ b/AlwaysOn/장부.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,11 +122,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>케이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아두이노 자이로 센서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전 케이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -163,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -223,13 +243,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -255,6 +299,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K9"/>
+  <dimension ref="B3:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -639,8 +689,8 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="1" t="s">
-        <v>1</v>
+      <c r="B5" s="7">
+        <v>42859</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -658,14 +708,14 @@
         <v>18</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="K5" s="6">
-        <f>K4-SUM(E4:E1048576)</f>
-        <v>460130</v>
+        <f>SUM(E4:E1048576)</f>
+        <v>350070</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -684,10 +734,17 @@
       <c r="G6" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="J6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="10">
+        <f>K4-SUM(E4:E1048576)</f>
+        <v>449930</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>1</v>
+      <c r="B7" s="7">
+        <v>42876</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -719,7 +776,7 @@
         <v>160430</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>20</v>
@@ -727,19 +784,42 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2">
         <v>10000</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B10" s="7">
+        <v>42923</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10200</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/AlwaysOn/장부.xlsx
+++ b/AlwaysOn/장부.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,38 @@
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인정되지 않을 가능성이 있어 희수에게 만원 입금 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지무근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노끈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양면 테이프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드론 다리, 카메라 케이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지무근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -306,6 +338,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K10"/>
+  <dimension ref="B3:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -712,7 +747,7 @@
       </c>
       <c r="K5" s="6">
         <f>SUM(E4:E1048576)</f>
-        <v>350070</v>
+        <v>377440</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -739,7 +774,7 @@
       </c>
       <c r="K6" s="10">
         <f>K4-SUM(E4:E1048576)</f>
-        <v>449930</v>
+        <v>422560</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.45">
@@ -801,6 +836,9 @@
       <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="H9" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B10" s="7">
@@ -820,6 +858,48 @@
       </c>
       <c r="G10" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2">
+        <v>20420</v>
       </c>
     </row>
   </sheetData>
